--- a/Lab1/Time_measurements.xlsx
+++ b/Lab1/Time_measurements.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">original</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_interchange_1</t>
+    <t xml:space="preserve">loop_interchange_good</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_interchange_2</t>
+    <t xml:space="preserve">loop_interchange_bad</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_unrolling</t>
+    <t xml:space="preserve">loop_unrolling_bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop_unrolling_good</t>
   </si>
   <si>
     <t xml:space="preserve">loop_fusion</t>
@@ -52,13 +55,16 @@
     <t xml:space="preserve">original_fast</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_interchange_fast_1</t>
+    <t xml:space="preserve">loop_interchange_fast_good</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_interchange_fast_2</t>
+    <t xml:space="preserve">loop_interchange_fast_bad</t>
   </si>
   <si>
-    <t xml:space="preserve">loop_unrolling_fast</t>
+    <t xml:space="preserve">loop_unrolling_fast_bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop_unrolling_fast_good</t>
   </si>
   <si>
     <t xml:space="preserve">loop_fusion_fast</t>
@@ -83,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,6 +110,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,12 +169,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,7 +195,1003 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Time measurements with -O0 compiler option</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.333532330883176"/>
+          <c:y val="0.0494527766518038"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0916604477611941"/>
+          <c:y val="0.109076109076109"/>
+          <c:w val="0.883022388059701"/>
+          <c:h val="0.675078008411342"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="9000">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$15:$J$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0185833730465672</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.163976139235672</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0395665561255508</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00343025840532061</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0161677545713308</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168977062052809</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00250898597620391</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00255073348927978</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00196929038711611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$15:$J$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.0185833730465672</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.163976139235672</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0395665561255508</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00343025840532061</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0161677545713308</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168977062052809</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00250898597620391</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00255073348927978</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00196929038711611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>loop_interchange_good</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>loop_interchange_bad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>loop_unrolling_bad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>loop_unrolling_good</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>loop_fusion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>function_inlining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>common_subexpression_elimination</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strength_reduction</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>compiler_help</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.37141666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.26529583333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9638975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.53429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.64866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.94984833333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75468375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.686783916666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.668529666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.675797416666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="29642353"/>
+        <c:axId val="51102974"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="29642353"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Code versions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51102974"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51102974"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29642353"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Time measurements with -fast compiler option</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.127013354164342"/>
+          <c:y val="0.0958169934640523"/>
+          <c:w val="0.846743295019157"/>
+          <c:h val="0.654483660130719"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="9000">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$15:$T$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.0195682796746225</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0059644594999349</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00497845692926944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00290727504088164</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00171099959803318</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00188261845912854</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00132724731704609</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00167982347710776</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00135562881987391</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00182381168385933</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$15:$T$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.0195682796746225</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0059644594999349</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00497845692926944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00290727504088164</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00171099959803318</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00188261845912854</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00132724731704609</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00167982347710776</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00135562881987391</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00182381168385933</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>original_fast</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>loop_interchange_fast_good</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>loop_interchange_fast_bad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>loop_unrolling_fast_bad</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>loop_unrolling_fast_good</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>loop_fusion_fast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>function_inlining_fast</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>common_subexpression_elimination_fast</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>strength_reduction_fast</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>compiler_help_fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.928117833333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06224015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.065134425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0697511833333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0477709416666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0514503583333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0385149666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0388087166666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03199205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0396392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="45052397"/>
+        <c:axId val="90225422"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45052397"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Code versions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90225422"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90225422"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45052397"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2246400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1223280" y="2792160"/>
+        <a:ext cx="9648000" cy="7104600"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17629200" y="2973600"/>
+        <a:ext cx="9677880" cy="6885000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -178,796 +1199,1002 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T57" activeCellId="0" sqref="T57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>3.33764</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>3.26381</v>
+        <v>2.26313</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2.28707</v>
+        <v>3.65126</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3.50083</v>
+        <v>2.50683</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.57616</v>
+        <v>1.65526</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.72162</v>
+        <v>1.9553</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.55245</v>
+        <v>0.75366</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.52657</v>
+        <v>0.68589</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.54042</v>
+        <v>0.674082</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1.34807</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0.820995</v>
+        <v>0.680537</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.975362</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.056729</v>
+        <v>0.0613755</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.0631579</v>
+        <v>0.0639156</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.0728238</v>
+        <v>0.0702284</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.0725712</v>
+        <v>0.0509086</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.0706691</v>
+        <v>0.050245</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0.0744636</v>
+        <v>0.041293</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>0.0750027</v>
+        <v>0.041376</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.066346</v>
+        <v>0.0339382</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0.0410548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1</v>
+        <v>3.32522</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.28473</v>
+        <v>2.25147</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.28073</v>
+        <v>3.81457</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3.52026</v>
+        <v>2.6048</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.56576</v>
+        <v>1.64515</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.78511</v>
+        <v>1.99849</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.55369</v>
+        <v>0.756781</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.54379</v>
+        <v>0.691337</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.54895</v>
+        <v>0.671895</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1.34944</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0.805709</v>
+        <v>0.675216</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.917143</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.0580516</v>
+        <v>0.0560903</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.0664104</v>
+        <v>0.0666451</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.0697637</v>
+        <v>0.0735948</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.076125</v>
+        <v>0.0468439</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.072325</v>
+        <v>0.0537776</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.0699378</v>
+        <v>0.0381043</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0.0669094</v>
+        <v>0.03776</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.0637664</v>
+        <v>0.0328556</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.0406343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3.30876</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3.28561</v>
+        <v>2.27203</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2.28463</v>
+        <v>3.94989</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3.49799</v>
+        <v>2.49292</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.64955</v>
+        <v>1.65103</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.70404</v>
+        <v>1.94205</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.56547</v>
+        <v>0.758599</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.5456</v>
+        <v>0.685583</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1.56502</v>
+        <v>0.667444</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.35163</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0.821023</v>
+        <v>0.675216</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.903001</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.0555036</v>
+        <v>0.0559301</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.06339</v>
+        <v>0.0772114</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.074514</v>
+        <v>0.0678528</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.0678496</v>
+        <v>0.0469121</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.0714225</v>
+        <v>0.0508529</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.0786922</v>
+        <v>0.038691</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>0.0713779</v>
+        <v>0.0373506</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.0636971</v>
+        <v>0.0333085</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.0411617</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>3.34248</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3.27328</v>
+        <v>2.263</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2.28165</v>
+        <v>3.82156</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3.49284</v>
+        <v>2.54516</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.59035</v>
+        <v>1.64486</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.69952</v>
+        <v>1.94616</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.53347</v>
+        <v>0.753838</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.52793</v>
+        <v>0.68435</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1.49138</v>
+        <v>0.666739</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1.34621</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0.812722</v>
+        <v>0.674467</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.909022</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.0552396</v>
+        <v>0.0557007</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0667275</v>
+        <v>0.0643875</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.0729296</v>
+        <v>0.0672975</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.073952</v>
+        <v>0.046805</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.0694317</v>
+        <v>0.0502751</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0.0766041</v>
+        <v>0.0377369</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0.0739558</v>
+        <v>0.0375277</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0.0644124</v>
+        <v>0.0310144</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.041422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>3.34209</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3.2679</v>
+        <v>2.25472</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.27404</v>
+        <v>3.89929</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3.50291</v>
+        <v>2.59252</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.6081</v>
+        <v>1.64717</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.72977</v>
+        <v>1.95099</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.55171</v>
+        <v>0.753263</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.5515</v>
+        <v>0.690874</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.52746</v>
+        <v>0.669797</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.34147</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0.818336</v>
+        <v>0.676847</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.918687</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.0574993</v>
+        <v>0.0606368</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.0621885</v>
+        <v>0.0579432</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0692994</v>
+        <v>0.0705729</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.0700706</v>
+        <v>0.0470916</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.0683062</v>
+        <v>0.0554515</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0.0746595</v>
+        <v>0.0376731</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>0.0683626</v>
+        <v>0.0408766</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0.0850704</v>
+        <v>0.0308947</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.0375671</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>3.33464</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3.26157</v>
+        <v>2.25066</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2.28752</v>
+        <v>4.02833</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3.55317</v>
+        <v>2.57154</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.5823</v>
+        <v>1.64688</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.72695</v>
+        <v>1.94618</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.52343</v>
+        <v>0.753851</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.56814</v>
+        <v>0.686096</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1.52045</v>
+        <v>0.667976</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1.34925</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0.809869</v>
+        <v>0.677862</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0.927155</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.055358</v>
+        <v>0.0577704</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.067626</v>
+        <v>0.068208</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0759564</v>
+        <v>0.0716232</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.0717134</v>
+        <v>0.0467944</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.0720922</v>
+        <v>0.0501265</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.0692061</v>
+        <v>0.0378922</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>0.0698933</v>
+        <v>0.037652</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.0634157</v>
+        <v>0.0309135</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0.0377344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>3.3668</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3.28812</v>
+        <v>2.25251</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2.28909</v>
+        <v>4.29922</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3.5671</v>
+        <v>2.52006</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.66228</v>
+        <v>1.64727</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.70825</v>
+        <v>1.93921</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.52759</v>
+        <v>0.75447</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.54605</v>
+        <v>0.687984</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1.56113</v>
+        <v>0.66907</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1.35349</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0.814296</v>
+        <v>0.674692</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0.920354</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.0553801</v>
+        <v>0.0734277</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.0670499</v>
+        <v>0.0618489</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.0669023</v>
+        <v>0.0706772</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.0736057</v>
+        <v>0.0471682</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.0709063</v>
+        <v>0.0508694</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.0720299</v>
+        <v>0.0380684</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>0.0702758</v>
+        <v>0.0381844</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0.0639028</v>
+        <v>0.0311299</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0.0375533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>7</v>
+        <v>3.33828</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3.26986</v>
+        <v>2.25157</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2.27825</v>
+        <v>4.1365</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3.76924</v>
+        <v>2.5361</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.62974</v>
+        <v>1.6455</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.69983</v>
+        <v>1.94975</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.5007</v>
+        <v>0.755648</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.56418</v>
+        <v>0.688232</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.55021</v>
+        <v>0.665494</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1.33952</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0.816316</v>
+        <v>0.673892</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0.916967</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.0587287</v>
+        <v>0.0621328</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.0637983</v>
+        <v>0.0643785</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.076349</v>
+        <v>0.0722174</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.0703019</v>
+        <v>0.0468449</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.0686782</v>
+        <v>0.0503168</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0.0760941</v>
+        <v>0.0412553</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0.0700327</v>
+        <v>0.037473</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0.0621041</v>
+        <v>0.0309569</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0.0376822</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>8</v>
+        <v>3.36612</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3.29171</v>
+        <v>2.2666</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2.28722</v>
+        <v>4.01045</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3.94088</v>
+        <v>2.53086</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.596</v>
+        <v>1.64657</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.76131</v>
+        <v>1.93807</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.56033</v>
+        <v>0.755735</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.53899</v>
+        <v>0.686413</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1.54309</v>
+        <v>0.665412</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1.34525</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0.823613</v>
+        <v>0.674506</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0.936758</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.0549358</v>
+        <v>0.0722233</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.0636709</v>
+        <v>0.0618022</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.0749627</v>
+        <v>0.064612</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.0671645</v>
+        <v>0.0472789</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.0688107</v>
+        <v>0.0500921</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.0676892</v>
+        <v>0.0375936</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>0.0688723</v>
+        <v>0.0377706</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.0636817</v>
+        <v>0.0341438</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0.0406122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>9</v>
+        <v>3.5791</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>3.28743</v>
+        <v>2.26198</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2.28748</v>
+        <v>3.98696</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4.1297</v>
+        <v>2.50279</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.60226</v>
+        <v>1.64933</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.70265</v>
+        <v>1.94117</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.54827</v>
+        <v>0.753452</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.53784</v>
+        <v>0.683058</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.61821</v>
+        <v>0.669644</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1.34689</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0.80784</v>
+        <v>0.677022</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.935381</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.0554374</v>
+        <v>0.0669668</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0662008</v>
+        <v>0.0612926</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0719382</v>
+        <v>0.0661491</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.0693579</v>
+        <v>0.0480049</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.0671885</v>
+        <v>0.0507949</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.0776202</v>
+        <v>0.03798</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.0718784</v>
+        <v>0.0405223</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0.0624161</v>
+        <v>0.0331446</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.0374522</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>10</v>
+        <v>3.39952</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3.28037</v>
+        <v>2.27883</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2.28557</v>
+        <v>4.00863</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4.2832</v>
+        <v>2.53425</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2.63802</v>
+        <v>1.6536</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.72779</v>
+        <v>1.94196</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.55163</v>
+        <v>0.752914</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1.54276</v>
+        <v>0.687143</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1.51444</v>
+        <v>0.667628</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1.34398</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0.813823</v>
+        <v>0.673718</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0.927967</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.0556899</v>
+        <v>0.061847</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.0660601</v>
+        <v>0.0640592</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0718763</v>
+        <v>0.0737623</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.0677642</v>
+        <v>0.0468273</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0752197</v>
+        <v>0.0503943</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.0710342</v>
+        <v>0.0375807</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>0.0783083</v>
+        <v>0.0414098</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>0.0636674</v>
+        <v>0.0309048</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0.0411996</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>11</v>
+        <v>3.41635</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3.27658</v>
+        <v>2.31705</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2.2784</v>
+        <v>3.96011</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4.22474</v>
+        <v>2.47365</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.63102</v>
+        <v>1.6513</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2.75695</v>
+        <v>1.94885</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.54376</v>
+        <v>0.753994</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.55499</v>
+        <v>0.684447</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1.52333</v>
+        <v>0.667175</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1.34189</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0.814754</v>
+        <v>0.675594</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.949617</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.0547489</v>
+        <v>0.0627804</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.0651449</v>
+        <v>0.0699209</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0700886</v>
+        <v>0.0684266</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.0714566</v>
+        <v>0.0517715</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.0702853</v>
+        <v>0.0542082</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0.0652817</v>
+        <v>0.0383111</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>0.0744525</v>
+        <v>0.0378016</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.0627639</v>
+        <v>0.0306997</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.0415966</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <f aca="false">AVERAGE(A2:A13)</f>
+        <v>3.37141666666667</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">AVERAGE(B2:B13)</f>
+        <v>2.26529583333333</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">AVERAGE(C2:C13)</f>
+        <v>3.9638975</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D13)</f>
+        <v>2.53429</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">AVERAGE(E2:E13)</f>
+        <v>1.64866</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">AVERAGE(F2:F13)</f>
+        <v>1.94984833333333</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">AVERAGE(G2:G13)</f>
+        <v>0.75468375</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">AVERAGE(H2:H13)</f>
+        <v>0.686783916666667</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">AVERAGE(I2:I13)</f>
+        <v>0.668529666666667</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">AVERAGE(J2:J13)</f>
+        <v>0.675797416666667</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">AVERAGE(K2:K13)</f>
+        <v>0.928117833333333</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">AVERAGE(L2:L13)</f>
+        <v>0.06224015</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">AVERAGE(M2:M13)</f>
+        <v>0.065134425</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">AVERAGE(N2:N13)</f>
+        <v>0.0697511833333333</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">AVERAGE(O2:O13)</f>
+        <v>0.0477709416666667</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">AVERAGE(P2:P13)</f>
+        <v>0.0514503583333333</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">AVERAGE(Q2:Q13)</f>
+        <v>0.0385149666666667</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">AVERAGE(R2:R13)</f>
+        <v>0.0388087166666667</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">AVERAGE(S2:S13)</f>
+        <v>0.03199205</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">AVERAGE(T2:T13)</f>
+        <v>0.0396392</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <f aca="false">STDEV(A2:A13)</f>
+        <v>0.0721988013415148</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">STDEV(B2:B13)</f>
+        <v>0.0185833730465672</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">STDEV(C2:C13)</f>
+        <v>0.163976139235672</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">STDEV(D2:D13)</f>
+        <v>0.0395665561255508</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">STDEV(E2:E13)</f>
+        <v>0.00343025840532061</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">STDEV(F2:F13)</f>
+        <v>0.0161677545713308</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">STDEV(G2:G13)</f>
+        <v>0.00168977062052809</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">STDEV(H2:H13)</f>
+        <v>0.00250898597620391</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">STDEV(I2:I13)</f>
+        <v>0.00255073348927978</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">STDEV(J2:J13)</f>
+        <v>0.00196929038711611</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">STDEV(K2:K13)</f>
+        <v>0.0195682796746225</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">STDEV(L2:L13)</f>
+        <v>0.0059644594999349</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">STDEV(M2:M13)</f>
+        <v>0.00497845692926944</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">STDEV(N2:N13)</f>
+        <v>0.00290727504088164</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">STDEV(O2:O13)</f>
+        <v>0.00171099959803318</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">STDEV(P2:P13)</f>
+        <v>0.00188261845912854</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">STDEV(Q2:Q13)</f>
+        <v>0.00132724731704609</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">STDEV(R2:R13)</f>
+        <v>0.00167982347710776</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">STDEV(S2:S13)</f>
+        <v>0.00135562881987391</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">STDEV(T2:T13)</f>
+        <v>0.00182381168385933</v>
       </c>
     </row>
   </sheetData>
@@ -978,5 +2205,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>